--- a/Datenlexikon.xlsx
+++ b/Datenlexikon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kun\Desktop\Uni\Automatisierungstechnik\ProjektaufgabeAT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F6288B-F148-4166-9669-F225491ED694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3AD907-92EB-4BFA-B1EE-BB5CF8B1917F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -89,9 +89,6 @@
     <t>intern in rad, bei übergeben an Visualisierung umrechnen in Grad</t>
   </si>
   <si>
-    <t>0-360</t>
-  </si>
-  <si>
     <t>UINT</t>
   </si>
   <si>
@@ -108,6 +105,9 @@
   </si>
   <si>
     <t>-50 - 50</t>
+  </si>
+  <si>
+    <t>0-359</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -473,7 +473,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
@@ -490,7 +490,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
         <v>16</v>
@@ -504,10 +504,10 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -518,10 +518,10 @@
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -532,10 +532,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -549,7 +549,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>16</v>
